--- a/documents/Gantt-Chart .xlsx
+++ b/documents/Gantt-Chart .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83E69F1-AEFB-41DE-BEBB-81E252334FDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81817C49-8529-47AF-B513-9BF3C920C3AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,8 +37,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>Task 3</t>
   </si>
@@ -114,12 +136,6 @@
   </si>
   <si>
     <t>Click on the link below to visit vertex42.com and learn more about how to use this template, such as how to calculate days and work days, create task dependencies, change the colors of the bars, add a scroll bar to make it easier to change the display week, extend the date range displayed in the chart, etc.</t>
-  </si>
-  <si>
-    <t>Company Name</t>
-  </si>
-  <si>
-    <t>Project Lead</t>
   </si>
   <si>
     <t>There are 2 worksheets in this workbook. 
@@ -202,18 +218,6 @@
 Repeat the instructions from cells A8 and A9 whenever you need to.</t>
   </si>
   <si>
-    <t>Multimedia Project</t>
-  </si>
-  <si>
-    <t>Gabour Filter Algorithm</t>
-  </si>
-  <si>
-    <t>Histogram Algorithm</t>
-  </si>
-  <si>
-    <t>CBIR &amp; CBVR Algorithms</t>
-  </si>
-  <si>
     <t>Prepairing Datasets</t>
   </si>
   <si>
@@ -226,16 +230,28 @@
     <t>Designing &amp; Implementing GUI</t>
   </si>
   <si>
-    <t>Histogram of Gradient</t>
-  </si>
-  <si>
-    <t>Extract Key Frame using Threshold</t>
-  </si>
-  <si>
     <t>Finding Image Datasets</t>
   </si>
   <si>
-    <t>Finding Video Datasets</t>
+    <t>Conan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">classification </t>
+  </si>
+  <si>
+    <t>Algorithms implmentation</t>
+  </si>
+  <si>
+    <t>searching</t>
+  </si>
+  <si>
+    <t>indexing Algorithm</t>
+  </si>
+  <si>
+    <t>extracting features  Algorithm</t>
+  </si>
+  <si>
+    <t>dealing with db</t>
   </si>
 </sst>
 </file>
@@ -795,6 +811,18 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="12" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -802,18 +830,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1383,8 +1399,8 @@
   <dimension ref="A1:BL21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P9" sqref="P9"/>
+      <pane ySplit="6" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1403,377 +1419,369 @@
   <sheetData>
     <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="46" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="4"/>
       <c r="F1" s="34"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="14" t="s">
-        <v>15</v>
-      </c>
+      <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="48" t="s">
-        <v>20</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="I2" s="48"/>
     </row>
     <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="71">
-        <v>44290</v>
-      </c>
-      <c r="F3" s="71"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="68">
+        <v>44317</v>
+      </c>
+      <c r="F3" s="68"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="66"/>
+      <c r="D4" s="70"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="68">
+      <c r="I4" s="65">
         <f>I5</f>
-        <v>44291</v>
-      </c>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="68">
+        <v>44312</v>
+      </c>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="65">
         <f>P5</f>
-        <v>44298</v>
-      </c>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="69"/>
-      <c r="V4" s="70"/>
-      <c r="W4" s="68">
+        <v>44319</v>
+      </c>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="67"/>
+      <c r="W4" s="65">
         <f>W5</f>
-        <v>44305</v>
-      </c>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="69"/>
-      <c r="Z4" s="69"/>
-      <c r="AA4" s="69"/>
-      <c r="AB4" s="69"/>
-      <c r="AC4" s="70"/>
-      <c r="AD4" s="68">
+        <v>44326</v>
+      </c>
+      <c r="X4" s="66"/>
+      <c r="Y4" s="66"/>
+      <c r="Z4" s="66"/>
+      <c r="AA4" s="66"/>
+      <c r="AB4" s="66"/>
+      <c r="AC4" s="67"/>
+      <c r="AD4" s="65">
         <f>AD5</f>
-        <v>44312</v>
-      </c>
-      <c r="AE4" s="69"/>
-      <c r="AF4" s="69"/>
-      <c r="AG4" s="69"/>
-      <c r="AH4" s="69"/>
-      <c r="AI4" s="69"/>
-      <c r="AJ4" s="70"/>
-      <c r="AK4" s="68">
+        <v>44333</v>
+      </c>
+      <c r="AE4" s="66"/>
+      <c r="AF4" s="66"/>
+      <c r="AG4" s="66"/>
+      <c r="AH4" s="66"/>
+      <c r="AI4" s="66"/>
+      <c r="AJ4" s="67"/>
+      <c r="AK4" s="65">
         <f>AK5</f>
-        <v>44319</v>
-      </c>
-      <c r="AL4" s="69"/>
-      <c r="AM4" s="69"/>
-      <c r="AN4" s="69"/>
-      <c r="AO4" s="69"/>
-      <c r="AP4" s="69"/>
-      <c r="AQ4" s="70"/>
-      <c r="AR4" s="68">
+        <v>44340</v>
+      </c>
+      <c r="AL4" s="66"/>
+      <c r="AM4" s="66"/>
+      <c r="AN4" s="66"/>
+      <c r="AO4" s="66"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="67"/>
+      <c r="AR4" s="65">
         <f>AR5</f>
-        <v>44326</v>
-      </c>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="69"/>
-      <c r="AV4" s="69"/>
-      <c r="AW4" s="69"/>
-      <c r="AX4" s="70"/>
-      <c r="AY4" s="68">
+        <v>44347</v>
+      </c>
+      <c r="AS4" s="66"/>
+      <c r="AT4" s="66"/>
+      <c r="AU4" s="66"/>
+      <c r="AV4" s="66"/>
+      <c r="AW4" s="66"/>
+      <c r="AX4" s="67"/>
+      <c r="AY4" s="65">
         <f>AY5</f>
-        <v>44333</v>
-      </c>
-      <c r="AZ4" s="69"/>
-      <c r="BA4" s="69"/>
-      <c r="BB4" s="69"/>
-      <c r="BC4" s="69"/>
-      <c r="BD4" s="69"/>
-      <c r="BE4" s="70"/>
-      <c r="BF4" s="68">
+        <v>44354</v>
+      </c>
+      <c r="AZ4" s="66"/>
+      <c r="BA4" s="66"/>
+      <c r="BB4" s="66"/>
+      <c r="BC4" s="66"/>
+      <c r="BD4" s="66"/>
+      <c r="BE4" s="67"/>
+      <c r="BF4" s="65" t="e">
         <f>BF5</f>
-        <v>44340</v>
-      </c>
-      <c r="BG4" s="69"/>
-      <c r="BH4" s="69"/>
-      <c r="BI4" s="69"/>
-      <c r="BJ4" s="69"/>
-      <c r="BK4" s="69"/>
-      <c r="BL4" s="70"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="BG4" s="66"/>
+      <c r="BH4" s="66"/>
+      <c r="BI4" s="66"/>
+      <c r="BJ4" s="66"/>
+      <c r="BK4" s="66"/>
+      <c r="BL4" s="67"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
+        <v>33</v>
+      </c>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
       <c r="I5" s="11">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>44291</v>
+        <v>44312</v>
       </c>
       <c r="J5" s="10">
         <f>I5+1</f>
-        <v>44292</v>
+        <v>44313</v>
       </c>
       <c r="K5" s="10">
         <f t="shared" ref="K5:AX5" si="0">J5+1</f>
-        <v>44293</v>
+        <v>44314</v>
       </c>
       <c r="L5" s="10">
         <f t="shared" si="0"/>
-        <v>44294</v>
+        <v>44315</v>
       </c>
       <c r="M5" s="10">
         <f t="shared" si="0"/>
-        <v>44295</v>
+        <v>44316</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" si="0"/>
-        <v>44296</v>
+        <v>44317</v>
       </c>
       <c r="O5" s="12">
         <f t="shared" si="0"/>
-        <v>44297</v>
+        <v>44318</v>
       </c>
       <c r="P5" s="11">
         <f>O5+1</f>
-        <v>44298</v>
+        <v>44319</v>
       </c>
       <c r="Q5" s="10">
         <f>P5+1</f>
-        <v>44299</v>
+        <v>44320</v>
       </c>
       <c r="R5" s="10">
         <f t="shared" si="0"/>
-        <v>44300</v>
+        <v>44321</v>
       </c>
       <c r="S5" s="10">
         <f t="shared" si="0"/>
-        <v>44301</v>
+        <v>44322</v>
       </c>
       <c r="T5" s="10">
         <f t="shared" si="0"/>
-        <v>44302</v>
+        <v>44323</v>
       </c>
       <c r="U5" s="10">
         <f t="shared" si="0"/>
-        <v>44303</v>
+        <v>44324</v>
       </c>
       <c r="V5" s="12">
         <f t="shared" si="0"/>
-        <v>44304</v>
+        <v>44325</v>
       </c>
       <c r="W5" s="11">
         <f>V5+1</f>
-        <v>44305</v>
+        <v>44326</v>
       </c>
       <c r="X5" s="10">
         <f>W5+1</f>
-        <v>44306</v>
+        <v>44327</v>
       </c>
       <c r="Y5" s="10">
         <f t="shared" si="0"/>
-        <v>44307</v>
+        <v>44328</v>
       </c>
       <c r="Z5" s="10">
         <f t="shared" si="0"/>
-        <v>44308</v>
+        <v>44329</v>
       </c>
       <c r="AA5" s="10">
         <f t="shared" si="0"/>
-        <v>44309</v>
+        <v>44330</v>
       </c>
       <c r="AB5" s="10">
         <f t="shared" si="0"/>
-        <v>44310</v>
+        <v>44331</v>
       </c>
       <c r="AC5" s="12">
         <f t="shared" si="0"/>
-        <v>44311</v>
+        <v>44332</v>
       </c>
       <c r="AD5" s="11">
         <f>AC5+1</f>
-        <v>44312</v>
+        <v>44333</v>
       </c>
       <c r="AE5" s="10">
         <f>AD5+1</f>
-        <v>44313</v>
+        <v>44334</v>
       </c>
       <c r="AF5" s="10">
         <f t="shared" si="0"/>
-        <v>44314</v>
+        <v>44335</v>
       </c>
       <c r="AG5" s="10">
         <f t="shared" si="0"/>
-        <v>44315</v>
+        <v>44336</v>
       </c>
       <c r="AH5" s="10">
         <f t="shared" si="0"/>
-        <v>44316</v>
+        <v>44337</v>
       </c>
       <c r="AI5" s="10">
         <f t="shared" si="0"/>
-        <v>44317</v>
+        <v>44338</v>
       </c>
       <c r="AJ5" s="12">
         <f t="shared" si="0"/>
-        <v>44318</v>
+        <v>44339</v>
       </c>
       <c r="AK5" s="11">
         <f>AJ5+1</f>
-        <v>44319</v>
+        <v>44340</v>
       </c>
       <c r="AL5" s="10">
         <f>AK5+1</f>
-        <v>44320</v>
+        <v>44341</v>
       </c>
       <c r="AM5" s="10">
         <f t="shared" si="0"/>
-        <v>44321</v>
+        <v>44342</v>
       </c>
       <c r="AN5" s="10">
         <f t="shared" si="0"/>
-        <v>44322</v>
+        <v>44343</v>
       </c>
       <c r="AO5" s="10">
         <f t="shared" si="0"/>
-        <v>44323</v>
+        <v>44344</v>
       </c>
       <c r="AP5" s="10">
         <f t="shared" si="0"/>
-        <v>44324</v>
+        <v>44345</v>
       </c>
       <c r="AQ5" s="12">
         <f t="shared" si="0"/>
-        <v>44325</v>
+        <v>44346</v>
       </c>
       <c r="AR5" s="11">
         <f>AQ5+1</f>
-        <v>44326</v>
+        <v>44347</v>
       </c>
       <c r="AS5" s="10">
         <f>AR5+1</f>
-        <v>44327</v>
+        <v>44348</v>
       </c>
       <c r="AT5" s="10">
         <f t="shared" si="0"/>
-        <v>44328</v>
+        <v>44349</v>
       </c>
       <c r="AU5" s="10">
         <f t="shared" si="0"/>
-        <v>44329</v>
+        <v>44350</v>
       </c>
       <c r="AV5" s="10">
         <f t="shared" si="0"/>
-        <v>44330</v>
+        <v>44351</v>
       </c>
       <c r="AW5" s="10">
         <f t="shared" si="0"/>
-        <v>44331</v>
+        <v>44352</v>
       </c>
       <c r="AX5" s="12">
         <f t="shared" si="0"/>
-        <v>44332</v>
+        <v>44353</v>
       </c>
       <c r="AY5" s="11">
         <f>AX5+1</f>
-        <v>44333</v>
+        <v>44354</v>
       </c>
       <c r="AZ5" s="10">
         <f>AY5+1</f>
-        <v>44334</v>
+        <v>44355</v>
       </c>
       <c r="BA5" s="10">
         <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
-        <v>44335</v>
-      </c>
-      <c r="BB5" s="10">
+        <v>44356</v>
+      </c>
+      <c r="BB5" s="10" t="e" cm="1">
+        <f t="array" ref="BB5">Project_Start+Proj5+1</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="BC5" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>44336</v>
-      </c>
-      <c r="BC5" s="10">
+        <v>#NAME?</v>
+      </c>
+      <c r="BD5" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>44337</v>
-      </c>
-      <c r="BD5" s="10">
+        <v>#NAME?</v>
+      </c>
+      <c r="BE5" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>44338</v>
-      </c>
-      <c r="BE5" s="12">
-        <f t="shared" si="1"/>
-        <v>44339</v>
-      </c>
-      <c r="BF5" s="11">
+        <v>#NAME?</v>
+      </c>
+      <c r="BF5" s="11" t="e">
         <f>BE5+1</f>
-        <v>44340</v>
-      </c>
-      <c r="BG5" s="10">
+        <v>#NAME?</v>
+      </c>
+      <c r="BG5" s="10" t="e">
         <f>BF5+1</f>
-        <v>44341</v>
-      </c>
-      <c r="BH5" s="10">
+        <v>#NAME?</v>
+      </c>
+      <c r="BH5" s="10" t="e">
         <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
-        <v>44342</v>
-      </c>
-      <c r="BI5" s="10">
+        <v>#NAME?</v>
+      </c>
+      <c r="BI5" s="10" t="e">
         <f t="shared" si="2"/>
-        <v>44343</v>
-      </c>
-      <c r="BJ5" s="10">
+        <v>#NAME?</v>
+      </c>
+      <c r="BJ5" s="10" t="e">
         <f t="shared" si="2"/>
-        <v>44344</v>
-      </c>
-      <c r="BK5" s="10">
+        <v>#NAME?</v>
+      </c>
+      <c r="BK5" s="10" t="e">
         <f t="shared" si="2"/>
-        <v>44345</v>
-      </c>
-      <c r="BL5" s="12">
+        <v>#NAME?</v>
+      </c>
+      <c r="BL5" s="12" t="e">
         <f t="shared" si="2"/>
-        <v>44346</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="46" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>12</v>
@@ -1974,54 +1982,54 @@
         <f t="shared" si="5"/>
         <v>W</v>
       </c>
-      <c r="BB6" s="13" t="str">
+      <c r="BB6" s="13" t="e">
         <f t="shared" si="5"/>
-        <v>T</v>
-      </c>
-      <c r="BC6" s="13" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="BC6" s="13" t="e">
         <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
-      <c r="BD6" s="13" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="BD6" s="13" t="e">
         <f t="shared" si="5"/>
-        <v>S</v>
-      </c>
-      <c r="BE6" s="13" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="BE6" s="13" t="e">
         <f t="shared" si="5"/>
-        <v>S</v>
-      </c>
-      <c r="BF6" s="13" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="BF6" s="13" t="e">
         <f t="shared" si="5"/>
-        <v>M</v>
-      </c>
-      <c r="BG6" s="13" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="BG6" s="13" t="e">
         <f t="shared" si="5"/>
-        <v>T</v>
-      </c>
-      <c r="BH6" s="13" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="BH6" s="13" t="e">
         <f t="shared" si="5"/>
-        <v>W</v>
-      </c>
-      <c r="BI6" s="13" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="BI6" s="13" t="e">
         <f t="shared" si="5"/>
-        <v>T</v>
-      </c>
-      <c r="BJ6" s="13" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="BJ6" s="13" t="e">
         <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
-      <c r="BK6" s="13" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="BK6" s="13" t="e">
         <f t="shared" si="5"/>
-        <v>S</v>
-      </c>
-      <c r="BL6" s="13" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="BL6" s="13" t="e">
         <f t="shared" si="5"/>
-        <v>S</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="45" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" s="49"/>
       <c r="E7"/>
@@ -2088,10 +2096,10 @@
     </row>
     <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="46" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C8" s="56"/>
       <c r="D8" s="18"/>
@@ -2161,24 +2169,24 @@
     </row>
     <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="46" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B9" s="62" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D9" s="21">
         <v>1</v>
       </c>
       <c r="E9" s="53">
         <f>Project_Start</f>
-        <v>44290</v>
+        <v>44317</v>
       </c>
       <c r="F9" s="53">
         <f>E9+3</f>
-        <v>44293</v>
+        <v>44320</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="16">
@@ -2244,24 +2252,24 @@
     </row>
     <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" s="62" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D10" s="21">
         <v>1</v>
       </c>
       <c r="E10" s="53">
         <f>F9+1</f>
-        <v>44294</v>
+        <v>44321</v>
       </c>
       <c r="F10" s="53">
         <f>E10+2</f>
-        <v>44296</v>
+        <v>44323</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16">
@@ -2327,10 +2335,10 @@
     </row>
     <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="46" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C11" s="58"/>
       <c r="D11" s="23"/>
@@ -2404,18 +2412,18 @@
         <v>2</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D12" s="26">
         <v>1</v>
       </c>
       <c r="E12" s="54">
         <f>E10+3</f>
-        <v>44297</v>
+        <v>44324</v>
       </c>
       <c r="F12" s="54">
         <f>E12+6</f>
-        <v>44303</v>
+        <v>44330</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="16">
@@ -2485,18 +2493,18 @@
         <v>3</v>
       </c>
       <c r="C13" s="59" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D13" s="26">
         <v>1</v>
       </c>
       <c r="E13" s="54">
         <f>E12+7</f>
-        <v>44304</v>
+        <v>44331</v>
       </c>
       <c r="F13" s="54">
         <f>E13+6</f>
-        <v>44310</v>
+        <v>44337</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="16">
@@ -2566,18 +2574,18 @@
         <v>0</v>
       </c>
       <c r="C14" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D14" s="26">
         <v>1</v>
       </c>
       <c r="E14" s="54">
         <f>F13+1</f>
-        <v>44311</v>
+        <v>44338</v>
       </c>
       <c r="F14" s="54">
         <f>E14+6</f>
-        <v>44317</v>
+        <v>44344</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16">
@@ -2654,11 +2662,11 @@
       </c>
       <c r="E15" s="54">
         <f>F14+1</f>
-        <v>44318</v>
+        <v>44345</v>
       </c>
       <c r="F15" s="54">
         <f>E15+10</f>
-        <v>44328</v>
+        <v>44355</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="16">
@@ -2724,10 +2732,10 @@
     </row>
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="45" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C16" s="60"/>
       <c r="D16" s="28"/>
@@ -2801,18 +2809,18 @@
         <v>2</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D17" s="31">
         <v>1</v>
       </c>
       <c r="E17" s="55">
         <f>E9+37</f>
-        <v>44327</v>
+        <v>44354</v>
       </c>
       <c r="F17" s="55">
         <f>E17+9</f>
-        <v>44336</v>
+        <v>44363</v>
       </c>
       <c r="G17" s="16"/>
       <c r="H17" s="16">
@@ -2882,18 +2890,18 @@
         <v>3</v>
       </c>
       <c r="C18" s="61" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D18" s="31">
         <v>1</v>
       </c>
       <c r="E18" s="55">
         <f>F17+1</f>
-        <v>44337</v>
+        <v>44364</v>
       </c>
       <c r="F18" s="55">
         <f>E18+4</f>
-        <v>44341</v>
+        <v>44368</v>
       </c>
       <c r="G18" s="16"/>
       <c r="H18" s="16">
@@ -2969,6 +2977,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -2976,11 +2989,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D18">
     <cfRule type="dataBar" priority="14">
@@ -3014,13 +3022,9 @@
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I1" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="57" fitToHeight="0" orientation="landscape" r:id="rId3"/>
+  <pageSetup scale="57" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
@@ -3088,12 +3092,12 @@
     </row>
     <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="35" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="38" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
